--- a/biology/Zoologie/Victor_Apfelbeck/Victor_Apfelbeck.xlsx
+++ b/biology/Zoologie/Victor_Apfelbeck/Victor_Apfelbeck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Apfelbeck (ou Viktor avec un k) né le 19 avril 1859 à Eisenerz et décédé le 1er mai 1934 à Sarajevo, est un entomologiste de Bosnie-Herzégovine. Il a été conservateur au Muséum de Bosnie et d'Herzégovine (Zemaljski Muzej Bosne i Hergegovine), à Sarajevo.
 Une partie de sa riche collection d'insectes est déposée au Muséum d'histoire naturelle de Vienne (Naturhistorisches Museum Wien) et une collection d'insectes de la péninsule balkanique d'environ 500.000 specimens est conservée au muséum de Sarajevo.
